--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -291,738 +291,742 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PrePostduktal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationPrepostduktal}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>inspiredOxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationInspiredOxygen}
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated`  time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:identifier.system}
+</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.note.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PrePostduktal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationPrepostduktal}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>inspiredOxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationInspiredOxygen}
-</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated`  time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:identifier.system}
-</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.note.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5486,13 +5490,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5543,7 +5547,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5571,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5578,7 +5582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5604,10 +5608,10 @@
         <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>152</v>
@@ -5651,7 +5655,7 @@
         <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
@@ -5660,7 +5664,7 @@
         <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5684,7 +5688,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5695,7 +5699,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5718,16 +5722,16 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5777,7 +5781,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5801,7 +5805,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5816,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5835,13 +5839,13 @@
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5916,7 +5920,7 @@
         <v>132</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5927,7 +5931,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5950,13 +5954,13 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6007,7 +6011,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>89</v>
@@ -6031,7 +6035,7 @@
         <v>132</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6042,7 +6046,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6068,13 +6072,13 @@
         <v>196</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6103,10 +6107,10 @@
         <v>211</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6124,7 +6128,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6142,24 +6146,24 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6182,13 +6186,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6239,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6263,7 +6267,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6274,7 +6278,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6300,10 +6304,10 @@
         <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>152</v>
@@ -6347,7 +6351,7 @@
         <v>137</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
@@ -6356,7 +6360,7 @@
         <v>138</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6380,7 +6384,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6391,7 +6395,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6414,19 +6418,19 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6475,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6496,10 +6500,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6510,7 +6514,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6533,19 +6537,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6594,7 +6598,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6615,10 +6619,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6629,7 +6633,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6655,16 +6659,16 @@
         <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6692,10 +6696,10 @@
         <v>211</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6713,7 +6717,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6734,10 +6738,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6748,7 +6752,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6771,16 +6775,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6830,7 +6834,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6848,24 +6852,24 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6888,16 +6892,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6947,7 +6951,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6965,24 +6969,24 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7005,19 +7009,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7066,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7078,7 +7082,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7087,10 +7091,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7101,7 +7105,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7124,13 +7128,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7181,7 +7185,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7205,7 +7209,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7220,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7242,10 +7246,10 @@
         <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>152</v>
@@ -7298,7 +7302,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7322,7 +7326,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7333,11 +7337,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7359,10 +7363,10 @@
         <v>134</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>152</v>
@@ -7417,7 +7421,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7456,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7475,13 +7479,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7532,7 +7536,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7541,7 +7545,7 @@
         <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>101</v>
@@ -7553,10 +7557,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7567,7 +7571,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7590,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7647,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7656,7 +7660,7 @@
         <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>101</v>
@@ -7668,10 +7672,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7682,7 +7686,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7708,16 +7712,16 @@
         <v>196</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7745,10 +7749,10 @@
         <v>113</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7766,7 +7770,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7784,10 +7788,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>311</v>
@@ -7801,7 +7805,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7827,16 +7831,16 @@
         <v>196</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7864,10 +7868,10 @@
         <v>211</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7885,7 +7889,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7903,10 +7907,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>311</v>
@@ -7920,7 +7924,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7943,17 +7947,17 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8002,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8030,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8060,13 +8064,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8117,7 +8121,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8138,10 +8142,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8152,7 +8156,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8175,16 +8179,16 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8234,7 +8238,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8255,10 +8259,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8269,7 +8273,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8292,16 +8296,16 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8351,7 +8355,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8376,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8386,7 +8390,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8409,19 +8413,19 @@
         <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8470,7 +8474,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8491,10 +8495,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8505,7 +8509,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8528,13 +8532,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8585,7 +8589,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8609,7 +8613,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8620,7 +8624,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8646,10 +8650,10 @@
         <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>152</v>
@@ -8702,7 +8706,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8726,7 +8730,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8737,11 +8741,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8763,10 +8767,10 @@
         <v>134</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>152</v>
@@ -8821,7 +8825,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8856,7 +8860,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8882,13 +8886,13 @@
         <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>210</v>
@@ -8940,7 +8944,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>89</v>
@@ -8958,7 +8962,7 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>216</v>
@@ -8975,7 +8979,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9001,13 +9005,13 @@
         <v>281</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>283</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>285</v>
@@ -9059,7 +9063,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9077,7 +9081,7 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>288</v>
@@ -9094,7 +9098,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9120,13 +9124,13 @@
         <v>196</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>295</v>
@@ -9178,7 +9182,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9217,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9297,7 +9301,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9332,7 +9336,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9358,16 +9362,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9416,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9437,10 +9441,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$95</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -106,7 +109,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/oxygensat</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -257,17 +260,17 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>FHIR Oxygen Saturation Profile</t>
+  </si>
+  <si>
+    <t>This profile defines  how to represent Oxygen Saturation observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -453,10 +456,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>PrePostduktal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationPrepostduktal}
+    <t>inspiredOxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationInspiredOxygen}
 </t>
   </si>
   <si>
@@ -470,13 +473,6 @@
 </t>
   </si>
   <si>
-    <t>inspiredOxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationInspiredOxygen}
-</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -494,7 +490,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -604,9 +600,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
@@ -650,38 +643,258 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
+  </si>
+  <si>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,6 +913,52 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>OxygenSatCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>2708-6</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -795,19 +1054,27 @@
   </si>
   <si>
     <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+Period</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -896,26 +1163,30 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -926,6 +1197,140 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -944,17 +1349,14 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1025,35 +1427,7 @@
     <t>Observation.note.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.note.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.note.author[x]</t>
@@ -1128,6 +1502,9 @@
     <t>Here bodySite.test only used from Codeableconcept datatype</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1155,53 +1532,7 @@
     <t>Observation.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Observation.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1462,14 +1793,14 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see Notes below.  Note that a system may calculate results from QuestionnaireResponse into a final score and represent the score as an Observation.</t>
@@ -1484,7 +1815,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1503,10 +1834,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
+    <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
@@ -1515,6 +1843,10 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-3:If there is no a value a data absent reason must be present {value.exists() or dataAbsentReason.exists()}</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1540,6 +1872,9 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1549,10 +1884,27 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for recording Vital Signs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1569,6 +1921,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1709,6 +2065,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1877,7 +2248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1887,7 +2258,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1896,7 +2267,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,7 +2281,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2054,7 +2425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2171,7 +2542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2288,7 +2659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2403,7 +2774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2520,7 +2891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2637,7 +3008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2754,7 +3125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2871,7 +3242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2984,7 +3355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2999,7 +3370,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3101,15 +3472,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3122,22 +3491,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3185,7 +3558,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3194,7 +3567,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>140</v>
@@ -3218,13 +3591,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3237,25 +3610,23 @@
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3304,7 +3675,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3316,34 +3687,34 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3362,17 +3733,17 @@
         <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3421,7 +3792,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3436,31 +3807,31 @@
         <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3479,18 +3850,18 @@
         <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3538,7 +3909,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3553,16 +3924,16 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3573,41 +3944,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3631,13 +4004,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3655,13 +4026,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3670,27 +4041,27 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3701,31 +4072,31 @@
         <v>89</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3750,37 +4121,35 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -3789,19 +4158,19 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3809,21 +4178,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3832,19 +4203,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3872,10 +4243,10 @@
         <v>113</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3893,7 +4264,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3917,26 +4288,26 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>89</v>
@@ -3948,23 +4319,19 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3988,13 +4355,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4012,10 +4379,10 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -4024,41 +4391,41 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4067,23 +4434,21 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4119,46 +4484,46 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4166,7 +4531,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4174,13 +4539,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4189,18 +4554,20 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4248,7 +4615,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4269,25 +4636,25 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4303,23 +4670,19 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4367,7 +4730,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4379,41 +4742,41 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4422,23 +4785,21 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4474,46 +4835,46 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4521,7 +4882,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4529,13 +4890,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4544,24 +4905,26 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>79</v>
@@ -4603,7 +4966,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4624,21 +4987,21 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4649,7 +5012,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4661,18 +5024,18 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4708,23 +5071,25 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4733,19 +5098,19 @@
         <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4753,23 +5118,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4778,24 +5141,24 @@
         <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>79</v>
@@ -4837,13 +5200,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4852,31 +5215,29 @@
         <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4885,7 +5246,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4897,17 +5258,17 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4956,13 +5317,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4971,27 +5332,27 @@
         <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5014,19 +5375,19 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5075,7 +5436,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5084,7 +5445,7 @@
         <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>101</v>
@@ -5093,24 +5454,24 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5130,22 +5491,22 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5170,13 +5531,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5194,7 +5555,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5203,7 +5564,7 @@
         <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>101</v>
@@ -5215,10 +5576,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5229,42 +5590,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5289,13 +5650,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5313,13 +5674,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5328,27 +5689,27 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5359,7 +5720,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5371,20 +5732,16 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5432,19 +5789,19 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5453,10 +5810,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>320</v>
+        <v>209</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5465,20 +5822,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5490,15 +5847,17 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5535,31 +5894,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5571,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5580,13 +5939,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5602,21 +5961,23 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5652,11 +6013,9 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5664,7 +6023,7 @@
         <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5676,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5685,10 +6044,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5697,20 +6056,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5722,18 +6083,20 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5781,13 +6144,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5802,10 +6165,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5814,9 +6177,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5827,7 +6190,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5836,16 +6199,16 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>342</v>
+        <v>207</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5896,7 +6259,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5908,7 +6271,7 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
@@ -5917,10 +6280,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5929,20 +6292,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5951,18 +6314,20 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5999,31 +6364,31 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6032,10 +6397,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6044,9 +6409,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6054,7 +6419,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>89</v>
@@ -6066,27 +6431,29 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6104,13 +6471,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6146,24 +6513,24 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>359</v>
+        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6183,18 +6550,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6243,7 +6612,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6255,7 +6624,7 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6264,10 +6633,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6276,20 +6645,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6298,27 +6667,27 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6348,31 +6717,31 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6381,10 +6750,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6393,9 +6762,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6406,7 +6775,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6418,19 +6787,17 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6479,13 +6846,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6500,10 +6867,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6512,9 +6879,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6537,19 +6904,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6598,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6619,10 +6986,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6631,9 +6998,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6653,22 +7020,22 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
+        <v>270</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6693,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6717,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6738,10 +7105,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6752,7 +7119,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6760,33 +7127,35 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6834,7 +7203,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6849,27 +7218,27 @@
         <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6880,7 +7249,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6889,19 +7258,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
+        <v>318</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6951,13 +7320,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6969,35 +7338,35 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7006,22 +7375,22 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>411</v>
+        <v>325</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7070,34 +7439,34 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7105,39 +7474,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7185,7 +7558,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7194,44 +7567,44 @@
         <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7240,19 +7613,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7302,19 +7675,19 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7323,25 +7696,25 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7354,25 +7727,23 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>153</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7409,19 +7780,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7433,32 +7802,34 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7467,7 +7838,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7476,19 +7847,21 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7536,44 +7909,46 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7582,7 +7957,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7591,19 +7966,21 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7651,42 +8028,42 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7700,28 +8077,28 @@
         <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7746,31 +8123,29 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7779,7 +8154,7 @@
         <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>101</v>
@@ -7788,26 +8163,28 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7816,31 +8193,31 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7865,13 +8242,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7889,16 +8266,16 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>101</v>
@@ -7907,24 +8284,24 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7947,18 +8324,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>451</v>
+        <v>205</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>207</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8006,7 +8381,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8018,7 +8393,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8030,7 +8405,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>455</v>
+        <v>209</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8039,20 +8414,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8064,15 +8439,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>211</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8109,31 +8486,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8142,10 +8519,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8156,7 +8533,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8164,13 +8541,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8179,18 +8556,20 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8238,13 +8617,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8259,10 +8638,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>465</v>
+        <v>388</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>466</v>
+        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8271,9 +8650,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8284,34 +8663,36 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>468</v>
+        <v>109</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8331,13 +8712,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8355,13 +8736,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8376,10 +8757,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8390,7 +8771,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8398,13 +8779,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8413,19 +8794,17 @@
         <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>474</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8474,13 +8853,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8495,10 +8874,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8509,7 +8888,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8517,37 +8896,39 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8598,10 +8979,10 @@
         <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8610,10 +8991,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8624,47 +9005,49 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>79</v>
@@ -8706,19 +9089,19 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8727,10 +9110,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8741,42 +9124,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8801,13 +9184,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8831,13 +9214,13 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -8846,10 +9229,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8858,20 +9241,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8880,22 +9263,22 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8920,13 +9303,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>213</v>
+        <v>438</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8944,13 +9327,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8962,24 +9345,24 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>216</v>
+        <v>440</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>217</v>
+        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8990,7 +9373,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8999,22 +9382,22 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>283</v>
+        <v>446</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>285</v>
+        <v>448</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9063,13 +9446,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -9081,24 +9464,24 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>288</v>
+        <v>449</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9109,7 +9492,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9121,20 +9504,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>493</v>
+        <v>206</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9158,13 +9537,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9182,7 +9561,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>492</v>
+        <v>208</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9191,10 +9570,10 @@
         <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9203,10 +9582,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9594,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9240,20 +9619,18 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9277,31 +9654,31 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>496</v>
+        <v>214</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9313,30 +9690,30 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9347,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9356,23 +9733,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9420,13 +9795,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9441,19 +9816,3676 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>414</v>
+        <v>132</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO95">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI94">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -269,10 +269,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -1130,7 +1126,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:identifier.system}
+    <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
   <si>
@@ -1149,14 +1145,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2283,7 +2279,7 @@
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -2521,19 +2517,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2544,7 +2540,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2555,28 +2551,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2626,13 +2622,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2661,7 +2657,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2672,25 +2668,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2741,19 +2737,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2776,7 +2772,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2787,28 +2783,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2858,19 +2854,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2893,7 +2889,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2904,7 +2900,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2916,16 +2912,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2951,43 +2947,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -3010,18 +3006,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -3033,16 +3029,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3092,31 +3088,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3127,11 +3123,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3150,16 +3146,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3209,7 +3205,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3233,7 +3229,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3244,7 +3240,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3267,13 +3263,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3312,17 +3308,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3334,7 +3330,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3357,10 +3353,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3382,13 +3378,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3439,7 +3435,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3448,10 +3444,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3463,7 +3459,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3474,11 +3470,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3491,25 +3487,25 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3558,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3570,7 +3566,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3582,7 +3578,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3593,7 +3589,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3613,20 +3609,20 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3675,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3687,22 +3683,22 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3710,11 +3706,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3730,20 +3726,20 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3792,7 +3788,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3804,19 +3800,19 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3827,11 +3823,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3847,19 +3843,19 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3909,7 +3905,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3921,19 +3917,19 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3944,7 +3940,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3952,34 +3948,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="H15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -4004,56 +4000,56 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4069,13 +4065,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4084,19 +4080,19 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4121,29 +4117,29 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4155,7 +4151,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4167,10 +4163,10 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4178,24 +4174,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4203,19 +4199,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4240,14 +4236,14 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4276,7 +4272,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4288,10 +4284,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4310,7 +4306,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4322,13 +4318,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4379,31 +4375,31 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4414,11 +4410,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4437,16 +4433,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4484,19 +4480,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4508,7 +4504,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4520,7 +4516,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4531,7 +4527,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4539,34 +4535,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4615,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4627,7 +4623,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4636,10 +4632,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4650,7 +4646,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4661,7 +4657,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4669,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4730,31 +4726,31 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4765,11 +4761,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4788,16 +4784,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4835,19 +4831,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4859,7 +4855,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4871,7 +4867,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4882,7 +4878,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4890,107 +4886,107 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5001,7 +4997,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5012,28 +5008,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5083,31 +5079,31 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5118,7 +5114,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5126,105 +5122,105 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5246,29 +5242,29 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5317,31 +5313,31 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5352,7 +5348,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5363,31 +5359,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5436,31 +5432,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5471,7 +5467,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5482,31 +5478,31 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5555,31 +5551,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5590,42 +5586,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5650,66 +5646,66 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5720,7 +5716,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5732,13 +5728,13 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5789,31 +5785,31 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5824,11 +5820,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5847,16 +5843,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5894,19 +5890,19 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5918,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5930,7 +5926,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5941,7 +5937,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5961,22 +5957,22 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6013,17 +6009,17 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6035,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -6044,10 +6040,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6058,44 +6054,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6144,7 +6140,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6156,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -6165,10 +6161,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6175,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6190,7 +6186,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6202,13 +6198,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6259,31 +6255,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6294,11 +6290,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6317,16 +6313,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6364,19 +6360,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6384,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6400,7 +6396,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6407,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6419,41 +6415,41 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6495,31 +6491,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6530,7 +6526,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6541,28 +6537,28 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6612,31 +6608,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6647,7 +6643,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6655,39 +6651,39 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6729,31 +6725,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6764,7 +6760,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6775,29 +6771,29 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6846,31 +6842,31 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6881,7 +6877,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6892,31 +6888,31 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6965,31 +6961,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7000,7 +6996,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7011,31 +7007,31 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7084,31 +7080,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7119,7 +7115,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7127,34 +7123,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7203,34 +7199,34 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7238,7 +7234,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7258,19 +7254,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7320,7 +7316,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7332,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7341,13 +7337,13 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7355,42 +7351,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7439,34 +7435,34 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7474,42 +7470,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7558,34 +7554,34 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7593,7 +7589,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7604,28 +7600,28 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7675,19 +7671,19 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7696,13 +7692,13 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7710,7 +7706,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7730,20 +7726,20 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7780,17 +7776,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7802,22 +7798,22 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7825,10 +7821,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7847,20 +7843,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7909,7 +7905,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7921,22 +7917,22 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7944,10 +7940,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7966,20 +7962,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8028,7 +8024,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8040,22 +8036,22 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8063,7 +8059,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8074,31 +8070,31 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8135,55 +8131,55 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
+      <c r="AI50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
@@ -8193,31 +8189,31 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8266,42 +8262,42 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8312,7 +8308,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8324,13 +8320,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8381,31 +8377,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8416,11 +8412,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8439,16 +8435,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8486,19 +8482,19 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB53" t="s" s="2">
+      <c r="AE53" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8510,7 +8506,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8522,7 +8518,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8533,7 +8529,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8541,34 +8537,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8617,31 +8613,31 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8652,7 +8648,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8663,104 +8659,104 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X55" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X55" t="s" s="2">
+      <c r="Y55" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8771,7 +8767,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8779,32 +8775,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8853,31 +8849,31 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8888,7 +8884,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8896,105 +8892,105 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9005,7 +9001,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9013,107 +9009,107 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9120,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9135,11 +9131,11 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9147,19 +9143,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9184,55 +9180,55 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9243,11 +9239,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9266,19 +9262,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9303,14 +9299,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9339,30 +9335,30 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9385,19 +9381,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9446,7 +9442,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9458,7 +9454,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9467,10 +9463,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9481,7 +9477,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9504,13 +9500,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9561,31 +9557,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9596,11 +9592,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9619,16 +9615,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9666,19 +9662,19 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB63" t="s" s="2">
+      <c r="AE63" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9690,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9702,7 +9698,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9709,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9733,19 +9729,19 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9795,31 +9791,31 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9826,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9850,16 +9846,16 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9910,31 +9906,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9945,7 +9941,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9953,28 +9949,28 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10025,31 +10021,31 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10060,7 +10056,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10071,7 +10067,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10083,16 +10079,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10118,66 +10114,66 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="X67" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="X67" t="s" s="2">
+      <c r="Y67" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10188,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10200,13 +10196,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10257,31 +10253,31 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10292,11 +10288,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10315,16 +10311,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10362,19 +10358,19 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB69" t="s" s="2">
+      <c r="AE69" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10386,7 +10382,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10398,7 +10394,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10409,7 +10405,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10429,22 +10425,22 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10493,7 +10489,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10505,7 +10501,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10514,10 +10510,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10528,7 +10524,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10539,31 +10535,31 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10612,31 +10608,31 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10647,7 +10643,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10658,7 +10654,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10670,19 +10666,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10707,55 +10703,55 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10766,7 +10762,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10777,7 +10773,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10789,16 +10785,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10848,42 +10844,42 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10894,7 +10890,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10906,16 +10902,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10965,42 +10961,42 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11023,19 +11019,19 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11084,7 +11080,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11096,19 +11092,19 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11119,7 +11115,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11130,7 +11126,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11142,13 +11138,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11199,31 +11195,31 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11234,11 +11230,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11257,16 +11253,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11316,7 +11312,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11328,7 +11324,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11340,7 +11336,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11351,11 +11347,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11368,25 +11364,25 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="M78" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11435,7 +11431,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11447,7 +11443,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11459,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11470,7 +11466,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11481,7 +11477,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11493,13 +11489,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11550,31 +11546,31 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AI79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11585,7 +11581,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11596,7 +11592,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11608,13 +11604,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11665,31 +11661,31 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AM80" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11700,7 +11696,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11711,7 +11707,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11723,19 +11719,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11760,55 +11756,55 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11819,7 +11815,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11842,19 +11838,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11879,14 +11875,14 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11903,7 +11899,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11915,19 +11911,19 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AM82" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11938,7 +11934,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11949,7 +11945,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11961,17 +11957,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12020,19 +12016,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -12044,7 +12040,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12055,7 +12051,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12066,7 +12062,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -12078,13 +12074,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12135,19 +12131,19 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12156,10 +12152,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12170,7 +12166,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12190,19 +12186,19 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12252,7 +12248,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12264,7 +12260,7 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12273,10 +12269,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12287,7 +12283,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12307,19 +12303,19 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12369,7 +12365,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12381,7 +12377,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12390,10 +12386,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12404,7 +12400,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12418,28 +12414,28 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12488,7 +12484,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12500,19 +12496,19 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AJ87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12523,7 +12519,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12534,7 +12530,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12546,13 +12542,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12603,31 +12599,31 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12638,11 +12634,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12661,16 +12657,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12720,7 +12716,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12732,7 +12728,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12744,7 +12740,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12755,11 +12751,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12772,25 +12768,25 @@
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="M90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12839,7 +12835,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12851,7 +12847,7 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
@@ -12863,7 +12859,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12874,7 +12870,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12882,34 +12878,34 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12934,14 +12930,14 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X91" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X91" t="s" s="2">
+      <c r="Y91" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12958,34 +12954,34 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12993,7 +12989,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13004,31 +13000,31 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>600</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13053,66 +13049,66 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Y92" t="s" s="2">
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH92" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
+      <c r="AI92" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AI92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AL92" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13123,11 +13119,11 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G93" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13135,19 +13131,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13172,14 +13168,14 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y93" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13196,19 +13192,19 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
@@ -13217,10 +13213,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13231,11 +13227,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13254,19 +13250,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13291,14 +13287,14 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13327,30 +13323,30 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL94" t="s" s="2">
+      <c r="AM94" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13376,16 +13372,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="M95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13434,7 +13430,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13446,7 +13442,7 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
@@ -13455,10 +13451,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
